--- a/biology/Biologie cellulaire et moléculaire/Dextrose_équivalent/Dextrose_équivalent.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Dextrose_équivalent/Dextrose_équivalent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dextrose_%C3%A9quivalent</t>
+          <t>Dextrose_équivalent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dextrose équivalent (DE), ou équivalent en dextrose, ou encore équivalence en dextrose, est la teneur en oses réducteurs, exprimée en pourcentage massique de dextrose (D-glucose) dans la matière sèche.
         D
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dextrose_%C3%A9quivalent</t>
+          <t>Dextrose_équivalent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +535,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DE du dextrose est de 100, celui de l'amidon (glucide complexe) est proche de 0.
 Le DE est en relation avec le degré d'hydrolyse d'un glucide complexe. Plus le DE est élevé, plus l'hydrolyse est poussée, et plus la proportion en sucres simples (à chaîne courte) est élevée.
